--- a/raw-data/cornell_raw_2023.xlsx
+++ b/raw-data/cornell_raw_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0486E60-340C-824D-8D65-CEBC1A5AA84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D75038-C4D7-C84B-8677-F9D2AADFBAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="900" windowWidth="27640" windowHeight="16940" xr2:uid="{DDD026F6-17F1-9E4D-9CCD-40D38C19DDC2}"/>
+    <workbookView xWindow="3640" yWindow="-21100" windowWidth="27640" windowHeight="16940" xr2:uid="{DDD026F6-17F1-9E4D-9CCD-40D38C19DDC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>CU_B1_P3404_SW</t>
   </si>
   <si>
-    <t>BEANBM</t>
-  </si>
-  <si>
     <t>INTRABM</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>BEANYD</t>
+  </si>
+  <si>
+    <t>BBM</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,22 +634,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
